--- a/CH-041 Transformation.xlsx
+++ b/CH-041 Transformation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832A56B5-E4B2-4610-A6A1-399BA38F1DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C73B057-FE47-42E8-A614-B91A2A6AE33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="30">
   <si>
     <t>Question</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>Machinary Code</t>
+  </si>
+  <si>
+    <t>Alternative with implicit intersection</t>
   </si>
 </sst>
 </file>
@@ -404,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -472,18 +475,19 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1154,10 +1158,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:U39"/>
+  <dimension ref="B1:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1167,29 +1171,33 @@
     <col min="6" max="6" width="4.5" customWidth="1"/>
     <col min="7" max="7" width="15.3984375" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="11" max="11" width="11.796875" customWidth="1"/>
+    <col min="15" max="15" width="16.09765625" customWidth="1"/>
+    <col min="16" max="16" width="16.8984375" customWidth="1"/>
+    <col min="18" max="18" width="18.296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:21" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="G1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="25"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="G1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="2:21" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
       <c r="F2" s="22"/>
       <c r="G2" s="23" t="s">
         <v>28</v>
@@ -1218,14 +1226,14 @@
       <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="28" t="str" cm="1">
+      <c r="K3" s="25" t="str" cm="1">
         <f t="array" ref="K3:L21">_xlfn.LET(_xlpm.z,_xlfn.LET(_xlpm.x,_xlfn.TOCOL(IFERROR(INDEX(B3:B11,_xlfn.MAP(C3:E11,_xlfn.LAMBDA(_xlpm.x,IF(LEN(_xlpm.x),ROW(_xlpm.x)-2,"")))),""),1),_xlfn._xlws.FILTER(_xlpm.x,LEN(_xlpm.x)&gt;0)),_xlfn.HSTACK(_xlpm.z,_xlfn.TOCOL(C3:E11,1)))</f>
         <v>M-112</v>
       </c>
       <c r="L3" s="1" t="str">
         <v>P-1046</v>
       </c>
-      <c r="N3" s="30" t="str" cm="1">
+      <c r="N3" s="27" t="str" cm="1">
         <f t="array" ref="N3:O21">_xlfn._xlws.SORT(_xlfn.ANCHORARRAY(K3),2)</f>
         <v>M-102</v>
       </c>
@@ -1267,7 +1275,7 @@
       <c r="H4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="28" t="str">
+      <c r="K4" s="25" t="str">
         <v>M-112</v>
       </c>
       <c r="L4" s="1" t="str">
@@ -1312,7 +1320,7 @@
       <c r="H5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="28" t="str">
+      <c r="K5" s="25" t="str">
         <v>M-112</v>
       </c>
       <c r="L5" s="1" t="str">
@@ -1353,7 +1361,7 @@
       <c r="H6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="28" t="str">
+      <c r="K6" s="25" t="str">
         <v>M-130</v>
       </c>
       <c r="L6" s="1" t="str">
@@ -1394,7 +1402,7 @@
       <c r="H7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="28" t="str">
+      <c r="K7" s="25" t="str">
         <v>M-130</v>
       </c>
       <c r="L7" s="1" t="str">
@@ -1439,7 +1447,7 @@
       <c r="H8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="28" t="str">
+      <c r="K8" s="25" t="str">
         <v>M-130</v>
       </c>
       <c r="L8" s="1" t="str">
@@ -1484,7 +1492,7 @@
       </c>
       <c r="I9"/>
       <c r="J9"/>
-      <c r="K9" s="29" t="str">
+      <c r="K9" s="26" t="str">
         <v>M-150</v>
       </c>
       <c r="L9" t="str">
@@ -1528,7 +1536,7 @@
       <c r="H10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="28" t="str">
+      <c r="K10" s="25" t="str">
         <v>M-150</v>
       </c>
       <c r="L10" s="1" t="str">
@@ -1569,7 +1577,7 @@
       <c r="H11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="28" t="str">
+      <c r="K11" s="25" t="str">
         <v>M-150</v>
       </c>
       <c r="L11" s="1" t="str">
@@ -1942,63 +1950,316 @@
       <c r="F24" s="6"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
+      <c r="J24" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="25" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F25" s="6"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
+      <c r="K25" t="str" cm="1">
+        <f t="array" ref="K25:L44">_xlfn.VSTACK(B2:C2, _xlfn._xlws.SORT(MID(_xlfn.TOCOL(_xlfn.IFS(C3:E11&gt;"", B3:B11&amp;C3:E11), 2, 1), {1,6}, {5,6}),2))</f>
+        <v>Machinary code</v>
+      </c>
+      <c r="L25" t="str">
+        <v>Products code</v>
+      </c>
+      <c r="O25" s="31" t="str" cm="1">
+        <f t="array" ref="O25:P43">_xlfn._xlws.SORT(MID(_xlfn.TOCOL(_xlfn.IFS(C3:E11&gt;"", B3:B11&amp;C3:E11), 2, 1), {1,6}, {5,6}),2)</f>
+        <v>M-102</v>
+      </c>
+      <c r="P25" t="str">
+        <v>P-1007</v>
+      </c>
     </row>
     <row r="26" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F26" s="6"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
+      <c r="K26" t="str">
+        <v>M-102</v>
+      </c>
+      <c r="L26" t="str">
+        <v>P-1007</v>
+      </c>
+      <c r="O26" t="str">
+        <v>M-134</v>
+      </c>
+      <c r="P26" t="str">
+        <v>P-1013</v>
+      </c>
     </row>
     <row r="27" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F27" s="6"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
+      <c r="K27" t="str">
+        <v>M-134</v>
+      </c>
+      <c r="L27" t="str">
+        <v>P-1013</v>
+      </c>
+      <c r="O27" t="str">
+        <v>M-130</v>
+      </c>
+      <c r="P27" t="str">
+        <v>P-1014</v>
+      </c>
     </row>
     <row r="28" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F28" s="6"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
+      <c r="K28" t="str">
+        <v>M-130</v>
+      </c>
+      <c r="L28" t="str">
+        <v>P-1014</v>
+      </c>
+      <c r="O28" t="str">
+        <v>M-134</v>
+      </c>
+      <c r="P28" t="str">
+        <v>P-1030</v>
+      </c>
     </row>
     <row r="29" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F29" s="6"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
+      <c r="K29" t="str">
+        <v>M-134</v>
+      </c>
+      <c r="L29" t="str">
+        <v>P-1030</v>
+      </c>
+      <c r="O29" t="str">
+        <v>M-150</v>
+      </c>
+      <c r="P29" t="str">
+        <v>P-1034</v>
+      </c>
     </row>
     <row r="30" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F30" s="6"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
+      <c r="K30" t="str">
+        <v>M-150</v>
+      </c>
+      <c r="L30" t="str">
+        <v>P-1034</v>
+      </c>
+      <c r="O30" t="str">
+        <v>M-102</v>
+      </c>
+      <c r="P30" t="str">
+        <v>P-1038</v>
+      </c>
     </row>
     <row r="31" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F31" s="6"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
+      <c r="K31" t="str">
+        <v>M-102</v>
+      </c>
+      <c r="L31" t="str">
+        <v>P-1038</v>
+      </c>
+      <c r="O31" t="str">
+        <v>M-130</v>
+      </c>
+      <c r="P31" t="str">
+        <v>P-1044</v>
+      </c>
     </row>
     <row r="32" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F32" s="6"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-    </row>
-    <row r="34" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="K32" t="str">
+        <v>M-130</v>
+      </c>
+      <c r="L32" t="str">
+        <v>P-1044</v>
+      </c>
+      <c r="O32" t="str">
+        <v>M-112</v>
+      </c>
+      <c r="P32" t="str">
+        <v>P-1046</v>
+      </c>
+    </row>
+    <row r="33" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="K33" t="str">
+        <v>M-112</v>
+      </c>
+      <c r="L33" t="str">
+        <v>P-1046</v>
+      </c>
+      <c r="O33" t="str">
+        <v>M-157</v>
+      </c>
+      <c r="P33" t="str">
+        <v>P-1050</v>
+      </c>
+    </row>
+    <row r="34" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-    </row>
-    <row r="36" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="K34" t="str">
+        <v>M-157</v>
+      </c>
+      <c r="L34" t="str">
+        <v>P-1050</v>
+      </c>
+      <c r="O34" t="str">
+        <v>M-112</v>
+      </c>
+      <c r="P34" t="str">
+        <v>P-1071</v>
+      </c>
+    </row>
+    <row r="35" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="K35" t="str">
+        <v>M-112</v>
+      </c>
+      <c r="L35" t="str">
+        <v>P-1071</v>
+      </c>
+      <c r="O35" t="str">
+        <v>M-150</v>
+      </c>
+      <c r="P35" t="str">
+        <v>P-1071</v>
+      </c>
+    </row>
+    <row r="36" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="K36" t="str">
+        <v>M-150</v>
+      </c>
+      <c r="L36" t="str">
+        <v>P-1071</v>
+      </c>
+      <c r="O36" t="str">
+        <v>M-130</v>
+      </c>
+      <c r="P36" t="str">
+        <v>P-1071</v>
+      </c>
+    </row>
+    <row r="37" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="K37" t="str">
+        <v>M-130</v>
+      </c>
+      <c r="L37" t="str">
+        <v>P-1071</v>
+      </c>
+      <c r="O37" t="str">
+        <v>M-165</v>
+      </c>
+      <c r="P37" t="str">
+        <v>P-1076</v>
+      </c>
+    </row>
+    <row r="38" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="K38" t="str">
+        <v>M-165</v>
+      </c>
+      <c r="L38" t="str">
+        <v>P-1076</v>
+      </c>
+      <c r="O38" t="str">
+        <v>M-108</v>
+      </c>
+      <c r="P38" t="str">
+        <v>P-1082</v>
+      </c>
+    </row>
+    <row r="39" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F39" s="6"/>
+      <c r="K39" t="str">
+        <v>M-108</v>
+      </c>
+      <c r="L39" t="str">
+        <v>P-1082</v>
+      </c>
+      <c r="O39" t="str">
+        <v>M-106</v>
+      </c>
+      <c r="P39" t="str">
+        <v>P-1082</v>
+      </c>
+    </row>
+    <row r="40" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="K40" t="str">
+        <v>M-106</v>
+      </c>
+      <c r="L40" t="str">
+        <v>P-1082</v>
+      </c>
+      <c r="O40" t="str">
+        <v>M-150</v>
+      </c>
+      <c r="P40" t="str">
+        <v>P-1082</v>
+      </c>
+    </row>
+    <row r="41" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="K41" t="str">
+        <v>M-150</v>
+      </c>
+      <c r="L41" t="str">
+        <v>P-1082</v>
+      </c>
+      <c r="O41" t="str">
+        <v>M-134</v>
+      </c>
+      <c r="P41" t="str">
+        <v>P-1082</v>
+      </c>
+    </row>
+    <row r="42" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="K42" t="str">
+        <v>M-134</v>
+      </c>
+      <c r="L42" t="str">
+        <v>P-1082</v>
+      </c>
+      <c r="O42" t="str">
+        <v>M-112</v>
+      </c>
+      <c r="P42" t="str">
+        <v>P-1088</v>
+      </c>
+    </row>
+    <row r="43" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="K43" t="str">
+        <v>M-112</v>
+      </c>
+      <c r="L43" t="str">
+        <v>P-1088</v>
+      </c>
+      <c r="O43" t="str">
+        <v>M-165</v>
+      </c>
+      <c r="P43" t="str">
+        <v>P-1089</v>
+      </c>
+    </row>
+    <row r="44" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="K44" t="str">
+        <v>M-165</v>
+      </c>
+      <c r="L44" t="str">
+        <v>P-1089</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G3:H29">
